--- a/Matlab code/dataset_init.xlsx
+++ b/Matlab code/dataset_init.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\NDSS_2023\Event triggered intersection\Event-triggered Intersection - Carla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabbir92\Documents\GitHub\Trust_based_CBF\Matlab code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FA2630-6987-4BF2-AD67-F618C0E45196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADA0029-549A-4605-A7AE-95D09401ACF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{FC1EE3A5-1B5F-46EA-8980-D52359FE3031}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8170" xr2:uid="{FC1EE3A5-1B5F-46EA-8980-D52359FE3031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,9 +456,9 @@
       <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -633,7 +633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -703,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
